--- a/房地产/水电费测算.xlsx
+++ b/房地产/水电费测算.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>年度</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>电话费</t>
+  </si>
+  <si>
+    <t>摊销到每月的平均值</t>
   </si>
   <si>
     <t>总额(2023)</t>
@@ -89,8 +92,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -695,17 +698,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,25 +1242,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="17.9423076923077" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.9230769230769" style="1"/>
     <col min="3" max="3" width="11.7692307692308" style="1"/>
     <col min="4" max="4" width="12.9230769230769" style="1"/>
+    <col min="10" max="10" width="10.0961538461538" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,9 +1281,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45505</v>
       </c>
       <c r="C2" s="1">
@@ -1283,7 +1299,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45474</v>
       </c>
       <c r="B3" s="1">
@@ -1294,10 +1310,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45444</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>53.83</v>
       </c>
@@ -1306,7 +1321,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45413</v>
       </c>
       <c r="B5" s="1">
@@ -1317,7 +1332,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45383</v>
       </c>
       <c r="C6" s="1">
@@ -1328,7 +1343,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45352</v>
       </c>
       <c r="B7" s="1">
@@ -1342,7 +1357,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45323</v>
       </c>
       <c r="C8" s="1">
@@ -1350,7 +1365,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45292</v>
       </c>
       <c r="B9" s="1">
@@ -1361,7 +1376,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45261</v>
       </c>
       <c r="C10" s="1">
@@ -1372,7 +1387,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45231</v>
       </c>
       <c r="B11" s="1">
@@ -1383,7 +1398,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45200</v>
       </c>
       <c r="C12" s="1">
@@ -1394,7 +1409,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45170</v>
       </c>
       <c r="B13" s="1">
@@ -1405,7 +1420,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45139</v>
       </c>
       <c r="C14" s="1">
@@ -1416,7 +1431,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45108</v>
       </c>
       <c r="B15" s="1">
@@ -1427,7 +1442,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45078</v>
       </c>
       <c r="C16" s="1">
@@ -1438,7 +1453,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45047</v>
       </c>
       <c r="B17" s="1">
@@ -1449,7 +1464,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45017</v>
       </c>
       <c r="C18" s="1">
@@ -1460,7 +1475,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>44986</v>
       </c>
       <c r="B19" s="1">
@@ -1474,7 +1489,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>44958</v>
       </c>
       <c r="C20" s="1">
@@ -1482,7 +1497,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>44927</v>
       </c>
       <c r="B21" s="1">
@@ -1493,7 +1508,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>44896</v>
       </c>
       <c r="C22" s="1">
@@ -1504,7 +1519,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>44866</v>
       </c>
       <c r="B23" s="1">
@@ -1518,7 +1533,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>44835</v>
       </c>
       <c r="C24" s="1">
@@ -1526,7 +1541,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>44805</v>
       </c>
       <c r="B25" s="1">
@@ -1540,7 +1555,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>44774</v>
       </c>
       <c r="C26" s="1">
@@ -1548,7 +1563,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>44743</v>
       </c>
       <c r="B27" s="1">
@@ -1559,7 +1574,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>44713</v>
       </c>
       <c r="C28" s="1">
@@ -1567,7 +1582,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>44682</v>
       </c>
       <c r="C29" s="1">
@@ -1575,7 +1590,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>44652</v>
       </c>
       <c r="C30" s="1">
@@ -1586,7 +1601,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>44621</v>
       </c>
       <c r="B31" s="1">
@@ -1597,7 +1612,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>44593</v>
       </c>
       <c r="C32" s="1">
@@ -1608,7 +1623,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>44562</v>
       </c>
       <c r="B33" s="1">
@@ -1619,7 +1634,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>44531</v>
       </c>
       <c r="C34" s="1">
@@ -1630,7 +1645,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>44501</v>
       </c>
       <c r="B35" s="1">
@@ -1641,7 +1656,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>44470</v>
       </c>
       <c r="C36" s="1">
@@ -1652,7 +1667,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>44440</v>
       </c>
       <c r="B37" s="1">
@@ -1663,7 +1678,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>44409</v>
       </c>
       <c r="C38" s="1">
@@ -1674,7 +1689,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>44378</v>
       </c>
       <c r="B39" s="1">
@@ -1685,7 +1700,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>44348</v>
       </c>
       <c r="C40" s="1">
@@ -1696,7 +1711,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>44317</v>
       </c>
       <c r="B41" s="1">
@@ -1707,7 +1722,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>44287</v>
       </c>
       <c r="C42" s="1">
@@ -1718,7 +1733,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>44256</v>
       </c>
       <c r="C43" s="1">
@@ -1726,7 +1741,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>44228</v>
       </c>
       <c r="C44" s="1">
@@ -1737,7 +1752,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>44197</v>
       </c>
       <c r="C45" s="1">
@@ -1745,7 +1760,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>44166</v>
       </c>
       <c r="C46" s="1">
@@ -1753,7 +1768,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>44136</v>
       </c>
       <c r="C47" s="1">
@@ -1761,7 +1776,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>44105</v>
       </c>
       <c r="C48" s="1">
@@ -1769,7 +1784,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>44075</v>
       </c>
       <c r="C49" s="1">
@@ -1777,7 +1792,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>44044</v>
       </c>
       <c r="C50" s="1">
@@ -1785,7 +1800,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>44013</v>
       </c>
       <c r="C51" s="1">
@@ -1793,7 +1808,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>43983</v>
       </c>
       <c r="C52" s="1">
@@ -1801,27 +1816,27 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>43952</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>43922</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>43891</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>43862</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>43831</v>
       </c>
       <c r="C57" s="1">
@@ -1829,7 +1844,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>43800</v>
       </c>
       <c r="C58" s="1">
@@ -1837,7 +1852,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>43770</v>
       </c>
       <c r="C59" s="1">
@@ -1845,12 +1860,12 @@
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>43739</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>43709</v>
       </c>
       <c r="C61" s="1">
@@ -1858,12 +1873,12 @@
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>43678</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>43647</v>
       </c>
       <c r="C63" s="1">
@@ -1871,7 +1886,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>43617</v>
       </c>
       <c r="C64" s="1">
@@ -1879,12 +1894,12 @@
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>43586</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>43556</v>
       </c>
       <c r="B66" s="1">
@@ -1895,22 +1910,22 @@
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>43525</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>43497</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>43466</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>43435</v>
       </c>
       <c r="C70" s="1">
@@ -1918,7 +1933,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>43405</v>
       </c>
       <c r="C71" s="1">
@@ -1926,7 +1941,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>43374</v>
       </c>
       <c r="B72" s="1">
@@ -1937,7 +1952,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>43344</v>
       </c>
       <c r="C73" s="1">
@@ -1945,77 +1960,77 @@
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>43313</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>43282</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>43252</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>43221</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>43191</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>43160</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>43132</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>43101</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>43070</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>43040</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>43009</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>42979</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>42948</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>42917</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>42887</v>
       </c>
       <c r="E88">
@@ -2023,16 +2038,16 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>42856</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>6</v>
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B91" s="1">
         <f>SUM(B10:B21)</f>
@@ -2046,10 +2061,22 @@
         <f>SUM(D10:D21)</f>
         <v>384.48</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>7</v>
+      <c r="J91" s="2">
+        <f>B91/12</f>
+        <v>15.4375</v>
+      </c>
+      <c r="K91" s="2">
+        <f>C91/12</f>
+        <v>86.2266666666667</v>
+      </c>
+      <c r="L91" s="2">
+        <f>D91/12</f>
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B92" s="1">
         <f>SUM(B22:B33)</f>
@@ -2063,10 +2090,22 @@
         <f>SUM(D22:D33)</f>
         <v>474.33</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>8</v>
+      <c r="J92" s="2">
+        <f>B92/12</f>
+        <v>30.0833333333333</v>
+      </c>
+      <c r="K92" s="2">
+        <f>C92/12</f>
+        <v>145.6925</v>
+      </c>
+      <c r="L92" s="2">
+        <f>D92/12</f>
+        <v>39.5275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C93" s="1">
         <f>SUM(C34:C45)</f>
@@ -2076,28 +2115,40 @@
         <f>SUM(D34:D45)</f>
         <v>264.96</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>9</v>
+      <c r="K93" s="2">
+        <f>C93/12</f>
+        <v>92.9383333333333</v>
+      </c>
+      <c r="L93" s="2">
+        <f>D93/12</f>
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C94" s="1">
         <f>SUM(C2:C50)</f>
         <v>5280.97</v>
       </c>
+      <c r="K94" s="2">
+        <f>C94/49</f>
+        <v>107.774897959184</v>
+      </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="3">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5">
         <f>AVERAGE(C2:C50)</f>
         <v>107.774897959184</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1">
         <f>MAX(C2:C50)</f>
@@ -2106,70 +2157,78 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C97" s="1">
         <f>MIN(C2:C50)</f>
         <v>35.64</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2" t="s">
-        <v>13</v>
+    <row r="98" spans="1:10">
+      <c r="A98" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B98" s="1">
         <f>SUM(B2:B41)</f>
         <v>840.5</v>
       </c>
+      <c r="J98" s="2">
+        <f>B98/40</f>
+        <v>21.0125</v>
+      </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="3">
+        <v>15</v>
+      </c>
+      <c r="B99" s="5">
         <f>AVERAGE(B2:B41)</f>
         <v>44.2368421052632</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="3">
+        <v>16</v>
+      </c>
+      <c r="B100" s="5">
         <f>MAX(B2:B41)</f>
         <v>158.65</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B101" s="3">
+        <v>17</v>
+      </c>
+      <c r="B101" s="5">
         <f>MIN(B2:B41)</f>
         <v>22.8</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>13</v>
+    <row r="102" spans="1:12">
+      <c r="A102" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D102" s="1">
         <f>SUM(D2:D44)</f>
         <v>1467.87</v>
       </c>
+      <c r="L102" s="2">
+        <f>D102/43</f>
+        <v>34.136511627907</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="3">
+        <v>15</v>
+      </c>
+      <c r="D103" s="5">
         <f>AVERAGE(D2:D44)</f>
         <v>69.8985714285714</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" s="1">
         <f>MAX(D2:D44)</f>
@@ -2178,7 +2237,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" s="1">
         <f>MIN(D2:D44)</f>
@@ -2186,6 +2245,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
